--- a/myapp/files/9_MethodComparePercent/Scenario 348.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 348.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2326</v>
+        <v>9946</v>
       </c>
       <c r="F2" t="n">
-        <v>1.79229145155573</v>
+        <v>2.04614840233375</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.10958904109589</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1944</v>
+        <v>15426</v>
       </c>
       <c r="F3" t="n">
-        <v>1.49794264050918</v>
+        <v>3.17352556348286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36986301369863</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>801</v>
+        <v>13976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.617207847246837</v>
+        <v>2.87522321244888</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.73972602739726</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>63</v>
+        <v>13064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0485444374239085</v>
+        <v>2.68760131993647</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.36986301369863</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8307</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.70896388278569</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>3387</v>
+        <v>13925</v>
       </c>
       <c r="F7" t="n">
-        <v>2.60984142150442</v>
+        <v>2.86473119872285</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.73972602739726</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9953</v>
+        <v>30107</v>
       </c>
       <c r="F8" t="n">
-        <v>7.66925056635177</v>
+        <v>6.19378543626205</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -821,10 +821,10 @@
         <v>8.10810810810811</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>6.84931506849315</v>
+        <v>5.15873015873016</v>
       </c>
       <c r="K8" t="n">
         <v>8</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5903</v>
+        <v>22001</v>
       </c>
       <c r="F9" t="n">
-        <v>4.54853673195765</v>
+        <v>4.52617243110244</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>4.10958904109589</v>
+        <v>6.34920634920635</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>748</v>
+        <v>19429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.576368876080692</v>
+        <v>3.99704577809597</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.36986301369863</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>816</v>
+        <v>18611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.628766046633482</v>
+        <v>3.82876210696094</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.36986301369863</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>5.40540540540541</v>
+        <v>4.05405405405405</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.29977534747081</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.396825396825397</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4859</v>
+        <v>18015</v>
       </c>
       <c r="F13" t="n">
-        <v>3.74408605464717</v>
+        <v>3.70614955439801</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>5.47945205479452</v>
+        <v>4.36507936507936</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11039</v>
+        <v>50886</v>
       </c>
       <c r="F14" t="n">
-        <v>8.50606420194486</v>
+        <v>10.4685609894586</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
@@ -1049,10 +1049,10 @@
         <v>18.9189189189189</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>8.21917808219178</v>
+        <v>8.73015873015873</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9950</v>
+        <v>38877</v>
       </c>
       <c r="F15" t="n">
-        <v>7.66693892647444</v>
+        <v>7.99800034561928</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,10 +1087,10 @@
         <v>12.1621621621622</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>10.958904109589</v>
+        <v>9.52380952380952</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>12439</v>
+        <v>25361</v>
       </c>
       <c r="F16" t="n">
-        <v>9.58482947803171</v>
+        <v>5.21741098246394</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>6.84931506849315</v>
+        <v>5.15873015873016</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>1833</v>
+        <v>5023</v>
       </c>
       <c r="F17" t="n">
-        <v>1.412411965048</v>
+        <v>1.03336048913357</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.36986301369863</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3807</v>
+        <v>15147</v>
       </c>
       <c r="F18" t="n">
-        <v>2.93347100433047</v>
+        <v>3.11612807662873</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.36986301369863</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5127</v>
+        <v>31633</v>
       </c>
       <c r="F19" t="n">
-        <v>3.95059255035522</v>
+        <v>6.50772294500539</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>13.5135135135135</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.73972602739726</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2728</v>
+        <v>34022</v>
       </c>
       <c r="F20" t="n">
-        <v>2.10205119511782</v>
+        <v>6.99920178405379</v>
       </c>
       <c r="G20" t="n">
         <v>16</v>
@@ -1277,16 +1277,16 @@
         <v>21.6216216216216</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>5.47945205479452</v>
+        <v>7.53968253968254</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>8.10810810810811</v>
+        <v>9.45945945945946</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.68921420988965</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35135135135135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>3646</v>
+        <v>4306</v>
       </c>
       <c r="F22" t="n">
-        <v>2.80941299758048</v>
+        <v>0.885855119691247</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.73972602739726</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>8376</v>
+        <v>11125</v>
       </c>
       <c r="F23" t="n">
-        <v>6.4540985375025</v>
+        <v>2.28869907258828</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.10958904109589</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>13567</v>
+        <v>18261</v>
       </c>
       <c r="F24" t="n">
-        <v>10.4540060719074</v>
+        <v>3.75675809119411</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>6.84931506849315</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>10478</v>
+        <v>22067</v>
       </c>
       <c r="F25" t="n">
-        <v>8.07378754488434</v>
+        <v>4.53975033121847</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J25" t="n">
-        <v>9.58904109589041</v>
+        <v>6.34920634920635</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>15988</v>
+        <v>32040</v>
       </c>
       <c r="F26" t="n">
-        <v>12.3194994529119</v>
+        <v>6.59145332905424</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>8.21917808219178</v>
+        <v>5.15873015873016</v>
       </c>
       <c r="K26" t="n">
         <v>7</v>
